--- a/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32458668221669</v>
+        <v>21.04550817108413</v>
       </c>
       <c r="C2">
-        <v>11.62134990779741</v>
+        <v>12.33550897507428</v>
       </c>
       <c r="D2">
-        <v>2.36564126322983</v>
+        <v>4.689345953715457</v>
       </c>
       <c r="E2">
-        <v>6.5423585078833</v>
+        <v>7.532522587831139</v>
       </c>
       <c r="F2">
-        <v>42.52084061496994</v>
+        <v>24.03797623818913</v>
       </c>
       <c r="G2">
-        <v>2.145610096249452</v>
+        <v>2.11035689372106</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.336918591447984</v>
+        <v>6.147629159674229</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.339849790313321</v>
+        <v>6.681723493690131</v>
       </c>
       <c r="M2">
-        <v>13.11958619392027</v>
+        <v>12.95213351289867</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.68753834977359</v>
+        <v>18.09587889184679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09478183656464</v>
+        <v>19.68604419557478</v>
       </c>
       <c r="C3">
-        <v>10.85644778540054</v>
+        <v>11.81080448778228</v>
       </c>
       <c r="D3">
-        <v>2.28098149383583</v>
+        <v>4.632232348173067</v>
       </c>
       <c r="E3">
-        <v>6.551863118535802</v>
+        <v>7.619515974965029</v>
       </c>
       <c r="F3">
-        <v>41.49364450332611</v>
+        <v>23.99081046214515</v>
       </c>
       <c r="G3">
-        <v>2.15614250298482</v>
+        <v>2.116309734577565</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.378531699280175</v>
+        <v>6.209634469966479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.292928760409837</v>
+        <v>6.565439293043139</v>
       </c>
       <c r="M3">
-        <v>12.68287491744384</v>
+        <v>12.36163841947499</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.95374378961585</v>
+        <v>18.15490661799851</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.31673513847424</v>
+        <v>18.80606107927701</v>
       </c>
       <c r="C4">
-        <v>10.363068109147</v>
+        <v>11.47695673310693</v>
       </c>
       <c r="D4">
-        <v>2.228723505992943</v>
+        <v>4.598067647648977</v>
       </c>
       <c r="E4">
-        <v>6.558333836248489</v>
+        <v>7.674941764459106</v>
       </c>
       <c r="F4">
-        <v>40.88536584979119</v>
+        <v>23.98657175462012</v>
       </c>
       <c r="G4">
-        <v>2.162765794389893</v>
+        <v>2.120076785717008</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.404690788509068</v>
+        <v>6.248778206813706</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.266929140978533</v>
+        <v>6.494938564766839</v>
       </c>
       <c r="M4">
-        <v>12.41616430792569</v>
+        <v>11.98784192582668</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.52164874685233</v>
+        <v>18.20971284251055</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.99418614833731</v>
+        <v>18.43613381415953</v>
       </c>
       <c r="C5">
-        <v>10.15598614082978</v>
+        <v>11.33809799342909</v>
       </c>
       <c r="D5">
-        <v>2.207345214340427</v>
+        <v>4.584379904427609</v>
       </c>
       <c r="E5">
-        <v>6.561124814340688</v>
+        <v>7.698038375321937</v>
       </c>
       <c r="F5">
-        <v>40.64313870001538</v>
+        <v>23.99082443122261</v>
       </c>
       <c r="G5">
-        <v>2.165506461429647</v>
+        <v>2.121640776598879</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.415510367329369</v>
+        <v>6.265005879516885</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.257031184202007</v>
+        <v>6.466459801515074</v>
       </c>
       <c r="M5">
-        <v>12.30796354263852</v>
+        <v>11.83287461082127</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.35017794183472</v>
+        <v>18.23650644373201</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.94030534771545</v>
+        <v>18.37402579423922</v>
       </c>
       <c r="C6">
-        <v>10.12123487882147</v>
+        <v>11.31487469164822</v>
       </c>
       <c r="D6">
-        <v>2.203790028913244</v>
+        <v>4.582121452240721</v>
       </c>
       <c r="E6">
-        <v>6.561597411612626</v>
+        <v>7.701904488097458</v>
       </c>
       <c r="F6">
-        <v>40.60325873133161</v>
+        <v>23.99188473952551</v>
       </c>
       <c r="G6">
-        <v>2.165964125296381</v>
+        <v>2.121902241449426</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.417316768737241</v>
+        <v>6.267717348509996</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.255429457297493</v>
+        <v>6.461746807411936</v>
       </c>
       <c r="M6">
-        <v>12.29003014194758</v>
+        <v>11.80698869045501</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.32198293150021</v>
+        <v>18.24121881782224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.31240692613792</v>
+        <v>18.80111787737346</v>
       </c>
       <c r="C7">
-        <v>10.36029979787253</v>
+        <v>11.47509524834259</v>
       </c>
       <c r="D7">
-        <v>2.228435541541433</v>
+        <v>4.597882090110326</v>
       </c>
       <c r="E7">
-        <v>6.558370859242367</v>
+        <v>7.675251182112679</v>
       </c>
       <c r="F7">
-        <v>40.88207619162033</v>
+        <v>23.98660521149111</v>
       </c>
       <c r="G7">
-        <v>2.162802584527124</v>
+        <v>2.120097760343768</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.404836050839406</v>
+        <v>6.248995931609593</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.266792843828299</v>
+        <v>6.494553441409616</v>
       </c>
       <c r="M7">
-        <v>12.41470293195436</v>
+        <v>11.9857624197315</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.51931760145164</v>
+        <v>18.21005640658693</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90545600642461</v>
+        <v>20.58618426912935</v>
       </c>
       <c r="C8">
-        <v>11.36249677737415</v>
+        <v>12.15708236275277</v>
       </c>
       <c r="D8">
-        <v>2.336499210114761</v>
+        <v>4.669470261874907</v>
       </c>
       <c r="E8">
-        <v>6.545500410370517</v>
+        <v>7.562103059783568</v>
       </c>
       <c r="F8">
-        <v>42.16201607621053</v>
+        <v>24.01644235188189</v>
       </c>
       <c r="G8">
-        <v>2.149210662024932</v>
+        <v>2.112386640744412</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.351144577452781</v>
+        <v>6.168790156957021</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.323082470400769</v>
+        <v>6.641457190165323</v>
       </c>
       <c r="M8">
-        <v>12.96878259658165</v>
+        <v>12.7509619840166</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.43067705680112</v>
+        <v>18.11225292898629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.83890745456598</v>
+        <v>23.80894436089035</v>
       </c>
       <c r="C9">
-        <v>13.14282445452618</v>
+        <v>13.39736254290748</v>
       </c>
       <c r="D9">
-        <v>2.546967237683057</v>
+        <v>4.816689901016326</v>
       </c>
       <c r="E9">
-        <v>6.525583998776777</v>
+        <v>7.355979212701847</v>
       </c>
       <c r="F9">
-        <v>44.84983989227719</v>
+        <v>24.28129916948417</v>
       </c>
       <c r="G9">
-        <v>2.12368362931587</v>
+        <v>2.098118826109583</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.250362971065868</v>
+        <v>6.019696409060411</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.456200552347248</v>
+        <v>6.935587905861269</v>
       </c>
       <c r="M9">
-        <v>14.06189724883869</v>
+        <v>14.15582032963432</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.36589850602876</v>
+        <v>18.07715391351422</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.87153189305172</v>
+        <v>25.97136823264836</v>
       </c>
       <c r="C10">
-        <v>14.34347847079261</v>
+        <v>14.24469967736043</v>
       </c>
       <c r="D10">
-        <v>2.702025495666081</v>
+        <v>4.928585126696165</v>
       </c>
       <c r="E10">
-        <v>6.514658505555126</v>
+        <v>7.213862519315494</v>
       </c>
       <c r="F10">
-        <v>46.9345710071131</v>
+        <v>24.61498060060386</v>
       </c>
       <c r="G10">
-        <v>2.105440272303196</v>
+        <v>2.08810501085608</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.178576628447724</v>
+        <v>5.914680498570932</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.568507870867116</v>
+        <v>7.153999863836931</v>
       </c>
       <c r="M10">
-        <v>14.86386301916383</v>
+        <v>15.1225858025048</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.88116635771874</v>
+        <v>18.15980796768162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8020376573925</v>
+        <v>26.90372360546726</v>
       </c>
       <c r="C11">
-        <v>14.86781048805221</v>
+        <v>14.61562030138432</v>
       </c>
       <c r="D11">
-        <v>2.773032430452951</v>
+        <v>4.980212475023568</v>
       </c>
       <c r="E11">
-        <v>6.510618642155837</v>
+        <v>7.151172361317873</v>
       </c>
       <c r="F11">
-        <v>47.90784143273247</v>
+        <v>24.79962116301792</v>
       </c>
       <c r="G11">
-        <v>2.09720758661913</v>
+        <v>2.083638985588792</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.146287865973899</v>
+        <v>5.867777911455042</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.622907241036113</v>
+        <v>7.253596005515996</v>
       </c>
       <c r="M11">
-        <v>15.22776568334336</v>
+        <v>15.54715613140073</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>36.59192017354686</v>
+        <v>18.22371296773106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16705853325625</v>
+        <v>27.24950090373892</v>
       </c>
       <c r="C12">
-        <v>15.06335642007104</v>
+        <v>14.75394845155104</v>
       </c>
       <c r="D12">
-        <v>2.800026707255547</v>
+        <v>4.999859869940862</v>
       </c>
       <c r="E12">
-        <v>6.509235261763366</v>
+        <v>7.127710117414342</v>
       </c>
       <c r="F12">
-        <v>48.28011593693821</v>
+        <v>24.87446390103879</v>
       </c>
       <c r="G12">
-        <v>2.094095427581908</v>
+        <v>2.08195957452185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.134102504201364</v>
+        <v>5.850132536561885</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.643997690377978</v>
+        <v>7.291324504837318</v>
       </c>
       <c r="M12">
-        <v>15.36540664156225</v>
+        <v>15.7056802817635</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.86428181963743</v>
+        <v>18.25191815640631</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.08867775339191</v>
+        <v>27.17535400418448</v>
       </c>
       <c r="C13">
-        <v>15.02137351496476</v>
+        <v>14.72425233141372</v>
       </c>
       <c r="D13">
-        <v>2.794207639721682</v>
+        <v>4.995624233681991</v>
       </c>
       <c r="E13">
-        <v>6.509526460875041</v>
+        <v>7.132750877977633</v>
       </c>
       <c r="F13">
-        <v>48.19977179890602</v>
+        <v>24.85812314223606</v>
       </c>
       <c r="G13">
-        <v>2.094765518989511</v>
+        <v>2.082320759831423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.136725175326511</v>
+        <v>5.853927798592833</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.639433409511231</v>
+        <v>7.283198703553782</v>
       </c>
       <c r="M13">
-        <v>15.33577057092952</v>
+        <v>15.67164023128036</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.80547836265388</v>
+        <v>18.24566199171163</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.83217344542517</v>
+        <v>26.93231635099795</v>
       </c>
       <c r="C14">
-        <v>14.88395760342878</v>
+        <v>14.62704355100456</v>
       </c>
       <c r="D14">
-        <v>2.775250910769072</v>
+        <v>4.981826967722513</v>
       </c>
       <c r="E14">
-        <v>6.510501815984103</v>
+        <v>7.149236580072131</v>
       </c>
       <c r="F14">
-        <v>47.9383931754904</v>
+        <v>24.80567874196884</v>
       </c>
       <c r="G14">
-        <v>2.096951465182175</v>
+        <v>2.083500589811834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.145284601238433</v>
+        <v>5.866323954973822</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.624632441429171</v>
+        <v>7.256699791714132</v>
       </c>
       <c r="M14">
-        <v>15.23909279805125</v>
+        <v>15.56024343312689</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>36.61426220692205</v>
+        <v>18.22595187855807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67437132108577</v>
+        <v>26.78250294927704</v>
       </c>
       <c r="C15">
-        <v>14.79939906331822</v>
+        <v>14.56722177821328</v>
       </c>
       <c r="D15">
-        <v>2.763654343137135</v>
+        <v>4.973388206794167</v>
       </c>
       <c r="E15">
-        <v>6.511118729746693</v>
+        <v>7.159370506289873</v>
       </c>
       <c r="F15">
-        <v>47.77878045913778</v>
+        <v>24.77420194816198</v>
       </c>
       <c r="G15">
-        <v>2.098290989182942</v>
+        <v>2.084224770318791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.150532576326083</v>
+        <v>5.873931724795899</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.615630780513018</v>
+        <v>7.240469628965661</v>
       </c>
       <c r="M15">
-        <v>15.17985343407881</v>
+        <v>15.49171488641562</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>36.49756001203408</v>
+        <v>18.21440709622693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81231412079086</v>
+        <v>25.90941172895882</v>
       </c>
       <c r="C16">
-        <v>14.30878358377079</v>
+        <v>14.22016283279365</v>
       </c>
       <c r="D16">
-        <v>2.697397576022152</v>
+        <v>4.925225138683288</v>
       </c>
       <c r="E16">
-        <v>6.514942274883587</v>
+        <v>7.217998503556679</v>
       </c>
       <c r="F16">
-        <v>46.87147710984622</v>
+        <v>24.60359222089953</v>
       </c>
       <c r="G16">
-        <v>2.105979287945615</v>
+        <v>2.088398583783149</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.18069324058818</v>
+        <v>5.917762399721001</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.565020552576883</v>
+        <v>7.147494016410709</v>
       </c>
       <c r="M16">
-        <v>14.84005963712807</v>
+        <v>15.09452713653953</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.83515874062947</v>
+        <v>18.15618009839624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29036580870529</v>
+        <v>25.36071678091552</v>
       </c>
       <c r="C17">
-        <v>14.00230092875224</v>
+        <v>14.00349699770608</v>
       </c>
       <c r="D17">
-        <v>2.656896543152947</v>
+        <v>4.895859270991312</v>
       </c>
       <c r="E17">
-        <v>6.517534530236039</v>
+        <v>7.254463461092003</v>
       </c>
       <c r="F17">
-        <v>46.32133581215414</v>
+        <v>24.5074874190566</v>
       </c>
       <c r="G17">
-        <v>2.110709988767852</v>
+        <v>2.09098122212388</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.199282334081333</v>
+        <v>5.944867314901773</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.534830372232365</v>
+        <v>7.090502408541499</v>
       </c>
       <c r="M17">
-        <v>14.63134416577198</v>
+        <v>14.84691750019584</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.43437085740513</v>
+        <v>18.12735684326218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98763726777058</v>
+        <v>25.04028334633212</v>
       </c>
       <c r="C18">
-        <v>13.82395438759116</v>
+        <v>13.87750985844014</v>
       </c>
       <c r="D18">
-        <v>2.633643038027583</v>
+        <v>4.879037495513376</v>
       </c>
       <c r="E18">
-        <v>6.519112212317918</v>
+        <v>7.275621847632367</v>
       </c>
       <c r="F18">
-        <v>46.00724302805649</v>
+        <v>24.45529096252968</v>
       </c>
       <c r="G18">
-        <v>2.113437479972196</v>
+        <v>2.092475161848596</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.210009582180234</v>
+        <v>5.960539803316871</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.517776370180927</v>
+        <v>7.057746017129269</v>
       </c>
       <c r="M18">
-        <v>14.51121068035814</v>
+        <v>14.70306940195978</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.20585732246001</v>
+        <v>18.11324127021822</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.8847052202215</v>
+        <v>24.93095614611084</v>
       </c>
       <c r="C19">
-        <v>13.76321066768189</v>
+        <v>13.83461949817226</v>
       </c>
       <c r="D19">
-        <v>2.625775899483292</v>
+        <v>4.873353955983807</v>
       </c>
       <c r="E19">
-        <v>6.519660923160925</v>
+        <v>7.282817577880536</v>
       </c>
       <c r="F19">
-        <v>45.90129427348732</v>
+        <v>24.43814094118183</v>
       </c>
       <c r="G19">
-        <v>2.114362199693547</v>
+        <v>2.092982470942202</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.213648025630818</v>
+        <v>5.96586067877432</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.512055111771015</v>
+        <v>7.046659997139114</v>
       </c>
       <c r="M19">
-        <v>14.47052208589097</v>
+        <v>14.65412158887136</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.12882832630955</v>
+        <v>18.10887811878748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.34618840244737</v>
+        <v>25.41962637868287</v>
       </c>
       <c r="C20">
-        <v>14.03513941181421</v>
+        <v>14.02670322743598</v>
       </c>
       <c r="D20">
-        <v>2.661203386327118</v>
+        <v>4.898978261485949</v>
       </c>
       <c r="E20">
-        <v>6.517249523310174</v>
+        <v>7.250562620991682</v>
       </c>
       <c r="F20">
-        <v>46.37965694366042</v>
+        <v>24.51739763742035</v>
       </c>
       <c r="G20">
-        <v>2.110205751621395</v>
+        <v>2.090705426275233</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.197299917441241</v>
+        <v>5.941973482783368</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.538011924576994</v>
+        <v>7.096566969225108</v>
       </c>
       <c r="M20">
-        <v>14.65357146047075</v>
+        <v>14.87342443854078</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.47682667285779</v>
+        <v>18.13016861109404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.90765753072719</v>
+        <v>27.00389932987846</v>
       </c>
       <c r="C21">
-        <v>14.92440044031285</v>
+        <v>14.65565424014878</v>
       </c>
       <c r="D21">
-        <v>2.78081576335363</v>
+        <v>4.985876973720212</v>
       </c>
       <c r="E21">
-        <v>6.510211245203173</v>
+        <v>7.14438684441007</v>
       </c>
       <c r="F21">
-        <v>48.01506412893163</v>
+        <v>24.82094777539617</v>
       </c>
       <c r="G21">
-        <v>2.096309289387221</v>
+        <v>2.083153734442927</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.142769453315764</v>
+        <v>5.862679843841887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.628966402852811</v>
+        <v>7.264482951754876</v>
       </c>
       <c r="M21">
-        <v>15.2674938888564</v>
+        <v>15.59302489682695</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.67033853405879</v>
+        <v>18.23163074052119</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.96044353876118</v>
+        <v>27.99689620379656</v>
       </c>
       <c r="C22">
-        <v>15.4881311365132</v>
+        <v>15.05427565680957</v>
       </c>
       <c r="D22">
-        <v>2.859626844374327</v>
+        <v>5.043234263379374</v>
       </c>
       <c r="E22">
-        <v>6.506472276185066</v>
+        <v>7.076608202392879</v>
       </c>
       <c r="F22">
-        <v>49.1056774172519</v>
+        <v>25.04811764504803</v>
       </c>
       <c r="G22">
-        <v>2.087256203187122</v>
+        <v>2.078286353390092</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.107367611347423</v>
+        <v>5.811525938878765</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.691278425351241</v>
+        <v>7.374296788793032</v>
       </c>
       <c r="M22">
-        <v>15.66779280385161</v>
+        <v>16.05018464808546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.46919776294676</v>
+        <v>18.32139161347991</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40130553116716</v>
+        <v>27.47076301773836</v>
       </c>
       <c r="C23">
-        <v>15.18880512326138</v>
+        <v>14.84267214662671</v>
       </c>
       <c r="D23">
-        <v>2.817491243703095</v>
+        <v>5.012572175972779</v>
       </c>
       <c r="E23">
-        <v>6.508384307946927</v>
+        <v>7.112636834309362</v>
       </c>
       <c r="F23">
-        <v>48.52154282305613</v>
+        <v>24.92417595535538</v>
       </c>
       <c r="G23">
-        <v>2.092086855096943</v>
+        <v>2.080878309432244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.126244547504863</v>
+        <v>5.838769802718824</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.657753475441912</v>
+        <v>7.315686948880039</v>
       </c>
       <c r="M23">
-        <v>15.45423459545668</v>
+        <v>15.8074088868346</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>37.0410539808013</v>
+        <v>18.27126612705459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.32095927678027</v>
+        <v>25.393008872811</v>
       </c>
       <c r="C24">
-        <v>14.02029982659914</v>
+        <v>14.01621612025936</v>
       </c>
       <c r="D24">
-        <v>2.659256168497026</v>
+        <v>4.897567975168742</v>
       </c>
       <c r="E24">
-        <v>6.517378103761735</v>
+        <v>7.2523255855727</v>
       </c>
       <c r="F24">
-        <v>46.35328314572437</v>
+        <v>24.51290772585503</v>
       </c>
       <c r="G24">
-        <v>2.110433692793589</v>
+        <v>2.090830085009217</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.1981960421819</v>
+        <v>5.943281504768805</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.536572602882326</v>
+        <v>7.093825152191224</v>
       </c>
       <c r="M24">
-        <v>14.64352293462108</v>
+        <v>14.86144530026013</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.45762647502772</v>
+        <v>18.12888978009142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.06663137131143</v>
+        <v>22.9664569599096</v>
       </c>
       <c r="C25">
-        <v>12.68048909280213</v>
+        <v>13.07277625367383</v>
       </c>
       <c r="D25">
-        <v>2.490064678899749</v>
+        <v>4.776176600352835</v>
       </c>
       <c r="E25">
-        <v>6.530358502999232</v>
+        <v>7.41008332581534</v>
       </c>
       <c r="F25">
-        <v>44.10359875918714</v>
+        <v>24.18614820879587</v>
       </c>
       <c r="G25">
-        <v>2.130485804000269</v>
+        <v>2.101892399565608</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.277192468877232</v>
+        <v>6.059200360397364</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.4176903220035</v>
+        <v>6.855515575467691</v>
       </c>
       <c r="M25">
-        <v>13.76607895534703</v>
+        <v>13.78683043266957</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.82624596860803</v>
+        <v>18.06854126578267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04550817108413</v>
+        <v>21.26323884710913</v>
       </c>
       <c r="C2">
-        <v>12.33550897507428</v>
+        <v>12.97661502695465</v>
       </c>
       <c r="D2">
-        <v>4.689345953715457</v>
+        <v>5.772323903938467</v>
       </c>
       <c r="E2">
-        <v>7.532522587831139</v>
+        <v>8.215263992611401</v>
       </c>
       <c r="F2">
-        <v>24.03797623818913</v>
+        <v>19.27695613966287</v>
       </c>
       <c r="G2">
-        <v>2.11035689372106</v>
+        <v>20.76925030318023</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.289777755249738</v>
       </c>
       <c r="J2">
-        <v>6.147629159674229</v>
+        <v>8.727285672764957</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.51183152004178</v>
       </c>
       <c r="L2">
-        <v>6.681723493690131</v>
+        <v>6.308607726068287</v>
       </c>
       <c r="M2">
-        <v>12.95213351289867</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.247963562440579</v>
       </c>
       <c r="O2">
-        <v>18.09587889184679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.01804725013528</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.97977223460967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68604419557478</v>
+        <v>19.87198518192132</v>
       </c>
       <c r="C3">
-        <v>11.81080448778228</v>
+        <v>12.41549764633209</v>
       </c>
       <c r="D3">
-        <v>4.632232348173067</v>
+        <v>5.677028561663945</v>
       </c>
       <c r="E3">
-        <v>7.619515974965029</v>
+        <v>8.201972197840313</v>
       </c>
       <c r="F3">
-        <v>23.99081046214515</v>
+        <v>19.23196372040703</v>
       </c>
       <c r="G3">
-        <v>2.116309734577565</v>
+        <v>20.63358029620947</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.4942867333944</v>
       </c>
       <c r="J3">
-        <v>6.209634469966479</v>
+        <v>8.800835979237839</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.78935355193193</v>
       </c>
       <c r="L3">
-        <v>6.565439293043139</v>
+        <v>6.290918484984647</v>
       </c>
       <c r="M3">
-        <v>12.36163841947499</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.056666220924401</v>
       </c>
       <c r="O3">
-        <v>18.15490661799851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.34644112120255</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.04581701634499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80606107927701</v>
+        <v>18.96564709481157</v>
       </c>
       <c r="C4">
-        <v>11.47695673310693</v>
+        <v>12.0573109796874</v>
       </c>
       <c r="D4">
-        <v>4.598067647648977</v>
+        <v>5.618524195010979</v>
       </c>
       <c r="E4">
-        <v>7.674941764459106</v>
+        <v>8.193782871792759</v>
       </c>
       <c r="F4">
-        <v>23.98657175462012</v>
+        <v>19.21850104340266</v>
       </c>
       <c r="G4">
-        <v>2.120076785717008</v>
+        <v>20.57296042349419</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.624146039123086</v>
       </c>
       <c r="J4">
-        <v>6.248778206813706</v>
+        <v>8.850650136304129</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.96730251630973</v>
       </c>
       <c r="L4">
-        <v>6.494938564766839</v>
+        <v>6.279650937289606</v>
       </c>
       <c r="M4">
-        <v>11.98784192582668</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.936450239540062</v>
       </c>
       <c r="O4">
-        <v>18.20971284251055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.91513419285863</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.09711086803032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43613381415953</v>
+        <v>18.58316778959114</v>
       </c>
       <c r="C5">
-        <v>11.33809799342909</v>
+        <v>11.90805560304252</v>
       </c>
       <c r="D5">
-        <v>4.584379904427609</v>
+        <v>5.594705124932265</v>
       </c>
       <c r="E5">
-        <v>7.698038375321937</v>
+        <v>8.190434368097383</v>
       </c>
       <c r="F5">
-        <v>23.99082443122261</v>
+        <v>19.21647621131501</v>
       </c>
       <c r="G5">
-        <v>2.121640776598879</v>
+        <v>20.55378874406745</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.678159173335958</v>
       </c>
       <c r="J5">
-        <v>6.265005879516885</v>
+        <v>8.872086451334427</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.04168413360318</v>
       </c>
       <c r="L5">
-        <v>6.466459801515074</v>
+        <v>6.274955943330478</v>
       </c>
       <c r="M5">
-        <v>11.83287461082127</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.886812832672449</v>
       </c>
       <c r="O5">
-        <v>18.23650644373201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.73475187460668</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.12061427419805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37402579423922</v>
+        <v>18.51886283044253</v>
       </c>
       <c r="C6">
-        <v>11.31487469164822</v>
+        <v>11.88307768267635</v>
       </c>
       <c r="D6">
-        <v>4.582121452240721</v>
+        <v>5.590751902902467</v>
       </c>
       <c r="E6">
-        <v>7.701904488097458</v>
+        <v>8.189877549699379</v>
       </c>
       <c r="F6">
-        <v>23.99188473952551</v>
+        <v>19.21634603431479</v>
       </c>
       <c r="G6">
-        <v>2.121902241449426</v>
+        <v>20.55093403504618</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.687194561750819</v>
       </c>
       <c r="J6">
-        <v>6.267717348509996</v>
+        <v>8.875713632551427</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.05414697883646</v>
       </c>
       <c r="L6">
-        <v>6.461746807411936</v>
+        <v>6.274170065389789</v>
       </c>
       <c r="M6">
-        <v>11.80698869045501</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.878532803143925</v>
       </c>
       <c r="O6">
-        <v>18.24121881782224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.70452508818655</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.12467116853732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80111787737346</v>
+        <v>18.9605420912067</v>
       </c>
       <c r="C7">
-        <v>11.47509524834259</v>
+        <v>12.05531119110648</v>
       </c>
       <c r="D7">
-        <v>4.597882090110326</v>
+        <v>5.618202847173339</v>
       </c>
       <c r="E7">
-        <v>7.675251182112679</v>
+        <v>8.193737763858016</v>
       </c>
       <c r="F7">
-        <v>23.98660521149111</v>
+        <v>19.2184598564495</v>
       </c>
       <c r="G7">
-        <v>2.120097760343768</v>
+        <v>20.57267971050868</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.6248700275054</v>
       </c>
       <c r="J7">
-        <v>6.248995931609593</v>
+        <v>8.850934674983302</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.96829813718362</v>
       </c>
       <c r="L7">
-        <v>6.494553441409616</v>
+        <v>6.279588039082162</v>
       </c>
       <c r="M7">
-        <v>11.9857624197315</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.935783375328218</v>
       </c>
       <c r="O7">
-        <v>18.21005640658693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.91271999839455</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.09741744442847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58618426912935</v>
+        <v>20.79432419449881</v>
       </c>
       <c r="C8">
-        <v>12.15708236275277</v>
+        <v>12.78605574998937</v>
       </c>
       <c r="D8">
-        <v>4.669470261874907</v>
+        <v>5.739476493948991</v>
       </c>
       <c r="E8">
-        <v>7.562103059783568</v>
+        <v>8.210684223335701</v>
       </c>
       <c r="F8">
-        <v>24.01644235188189</v>
+        <v>19.2584444973454</v>
       </c>
       <c r="G8">
-        <v>2.112386640744412</v>
+        <v>20.71766533269147</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.359411679583507</v>
       </c>
       <c r="J8">
-        <v>6.168790156957021</v>
+        <v>8.751659154797627</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.60593343657403</v>
       </c>
       <c r="L8">
-        <v>6.641457190165323</v>
+        <v>6.302592042685806</v>
       </c>
       <c r="M8">
-        <v>12.7509619840166</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.182602914202524</v>
       </c>
       <c r="O8">
-        <v>18.11225292898629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.79048419800409</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.00025410148642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80894436089035</v>
+        <v>23.978914712302</v>
       </c>
       <c r="C9">
-        <v>13.39736254290748</v>
+        <v>14.10544200398077</v>
       </c>
       <c r="D9">
-        <v>4.816689901016326</v>
+        <v>5.976491680437023</v>
       </c>
       <c r="E9">
-        <v>7.355979212701847</v>
+        <v>8.243892363289488</v>
       </c>
       <c r="F9">
-        <v>24.28129916948417</v>
+        <v>19.45345120817413</v>
       </c>
       <c r="G9">
-        <v>2.098118826109583</v>
+        <v>21.18871575878142</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.872146956682064</v>
       </c>
       <c r="J9">
-        <v>6.019696409060411</v>
+        <v>8.595498158185908</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.95693125613509</v>
       </c>
       <c r="L9">
-        <v>6.935587905861269</v>
+        <v>6.344538810558399</v>
       </c>
       <c r="M9">
-        <v>14.15582032963432</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.642913880462396</v>
       </c>
       <c r="O9">
-        <v>18.07715391351422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.35663102330587</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.89950478788438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.97136823264836</v>
+        <v>26.08035690059218</v>
       </c>
       <c r="C10">
-        <v>14.24469967736043</v>
+        <v>15.05605067471608</v>
       </c>
       <c r="D10">
-        <v>4.928585126696165</v>
+        <v>6.119466068724027</v>
       </c>
       <c r="E10">
-        <v>7.213862519315494</v>
+        <v>8.244454559324561</v>
       </c>
       <c r="F10">
-        <v>24.61498060060386</v>
+        <v>19.55279150126098</v>
       </c>
       <c r="G10">
-        <v>2.08810501085608</v>
+        <v>21.48471116326452</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.585187886928615</v>
       </c>
       <c r="J10">
-        <v>5.914680498570932</v>
+        <v>8.47868984554272</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.47243531788798</v>
       </c>
       <c r="L10">
-        <v>7.153999863836931</v>
+        <v>6.381493971792882</v>
       </c>
       <c r="M10">
-        <v>15.1225858025048</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.902800654297764</v>
       </c>
       <c r="O10">
-        <v>18.15980796768162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.36443177639476</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.81522886286027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.90372360546726</v>
+        <v>27.06624526710427</v>
       </c>
       <c r="C11">
-        <v>14.61562030138432</v>
+        <v>15.96202417312463</v>
       </c>
       <c r="D11">
-        <v>4.980212475023568</v>
+        <v>5.930634960932962</v>
       </c>
       <c r="E11">
-        <v>7.151172361317873</v>
+        <v>8.121055056282039</v>
       </c>
       <c r="F11">
-        <v>24.79962116301792</v>
+        <v>18.57175807463531</v>
       </c>
       <c r="G11">
-        <v>2.083638985588792</v>
+        <v>20.15651482720088</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.635324242696583</v>
       </c>
       <c r="J11">
-        <v>5.867777911455042</v>
+        <v>8.189610739178985</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.86425390601689</v>
       </c>
       <c r="L11">
-        <v>7.253596005515996</v>
+        <v>6.512506763688698</v>
       </c>
       <c r="M11">
-        <v>15.54715613140073</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.49594691504682</v>
       </c>
       <c r="O11">
-        <v>18.22371296773106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.42717999067882</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.17207378501105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.24950090373892</v>
+        <v>27.4737407017001</v>
       </c>
       <c r="C12">
-        <v>14.75394845155104</v>
+        <v>16.54531868728331</v>
       </c>
       <c r="D12">
-        <v>4.999859869940862</v>
+        <v>5.74230377378298</v>
       </c>
       <c r="E12">
-        <v>7.127710117414342</v>
+        <v>8.133731480599197</v>
       </c>
       <c r="F12">
-        <v>24.87446390103879</v>
+        <v>17.7097095810267</v>
       </c>
       <c r="G12">
-        <v>2.08195957452185</v>
+        <v>18.9438694494817</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.05632886046413</v>
       </c>
       <c r="J12">
-        <v>5.850132536561885</v>
+        <v>7.96788118713912</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.4814425254636</v>
       </c>
       <c r="L12">
-        <v>7.291324504837318</v>
+        <v>6.673524442962878</v>
       </c>
       <c r="M12">
-        <v>15.7056802817635</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.110415917903315</v>
       </c>
       <c r="O12">
-        <v>18.25191815640631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.26652332202422</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.63873144873554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.17535400418448</v>
+        <v>27.47472729209071</v>
       </c>
       <c r="C13">
-        <v>14.72425233141372</v>
+        <v>16.92737324882743</v>
       </c>
       <c r="D13">
-        <v>4.995624233681991</v>
+        <v>5.5419271282719</v>
       </c>
       <c r="E13">
-        <v>7.132750877977633</v>
+        <v>8.246448483745697</v>
       </c>
       <c r="F13">
-        <v>24.85812314223606</v>
+        <v>16.88484914771965</v>
       </c>
       <c r="G13">
-        <v>2.082320759831423</v>
+        <v>17.73253880933911</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.503849723760582</v>
       </c>
       <c r="J13">
-        <v>5.853927798592833</v>
+        <v>7.785539439023316</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.25612028227975</v>
       </c>
       <c r="L13">
-        <v>7.283198703553782</v>
+        <v>6.859971241804239</v>
       </c>
       <c r="M13">
-        <v>15.67164023128036</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.716455970234661</v>
       </c>
       <c r="O13">
-        <v>18.24566199171163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.92003518743773</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.15821427616707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.93231635099795</v>
+        <v>27.29175634925365</v>
       </c>
       <c r="C14">
-        <v>14.62704355100456</v>
+        <v>17.10837422212849</v>
       </c>
       <c r="D14">
-        <v>4.981826967722513</v>
+        <v>5.396957157980395</v>
       </c>
       <c r="E14">
-        <v>7.149236580072131</v>
+        <v>8.381267762654485</v>
       </c>
       <c r="F14">
-        <v>24.80567874196884</v>
+        <v>16.33020063971871</v>
       </c>
       <c r="G14">
-        <v>2.083500589811834</v>
+        <v>16.88832684421776</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.523874620128082</v>
       </c>
       <c r="J14">
-        <v>5.866323954973822</v>
+        <v>7.677766817461886</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.17863048136446</v>
       </c>
       <c r="L14">
-        <v>7.256699791714132</v>
+        <v>7.00540555476474</v>
       </c>
       <c r="M14">
-        <v>15.56024343312689</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.440582692179911</v>
       </c>
       <c r="O14">
-        <v>18.22595187855807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.58862554163007</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.85054662923697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.78250294927704</v>
+        <v>27.1592777203892</v>
       </c>
       <c r="C15">
-        <v>14.56722177821328</v>
+        <v>17.10836403824454</v>
       </c>
       <c r="D15">
-        <v>4.973388206794167</v>
+        <v>5.359040593058055</v>
       </c>
       <c r="E15">
-        <v>7.159370506289873</v>
+        <v>8.418826731916887</v>
       </c>
       <c r="F15">
-        <v>24.77420194816198</v>
+        <v>16.20628722851037</v>
       </c>
       <c r="G15">
-        <v>2.084224770318791</v>
+        <v>16.68834580052996</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.760824133829506</v>
       </c>
       <c r="J15">
-        <v>5.873931724795899</v>
+        <v>7.660623336103967</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.18976923180706</v>
       </c>
       <c r="L15">
-        <v>7.240469628965661</v>
+        <v>7.038272454473751</v>
       </c>
       <c r="M15">
-        <v>15.49171488641562</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.370088984185197</v>
       </c>
       <c r="O15">
-        <v>18.21440709622693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.46783274590062</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.78906254383027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.90941172895882</v>
+        <v>26.30586204777955</v>
       </c>
       <c r="C16">
-        <v>14.22016283279365</v>
+        <v>16.65955767104677</v>
       </c>
       <c r="D16">
-        <v>4.925225138683288</v>
+        <v>5.335990644060343</v>
       </c>
       <c r="E16">
-        <v>7.217998503556679</v>
+        <v>8.385412646503628</v>
       </c>
       <c r="F16">
-        <v>24.60359222089953</v>
+        <v>16.32612036543492</v>
       </c>
       <c r="G16">
-        <v>2.088398583783149</v>
+        <v>16.7785408189535</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.558892371779672</v>
       </c>
       <c r="J16">
-        <v>5.917762399721001</v>
+        <v>7.749026123484007</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.44877039236865</v>
       </c>
       <c r="L16">
-        <v>7.147494016410709</v>
+        <v>6.976823029279745</v>
       </c>
       <c r="M16">
-        <v>15.09452713653953</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.33056901237357</v>
       </c>
       <c r="O16">
-        <v>18.15618009839624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.10015586772152</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.92330939164425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36071678091552</v>
+        <v>25.73782847358341</v>
       </c>
       <c r="C17">
-        <v>14.00349699770608</v>
+        <v>16.20796816298439</v>
       </c>
       <c r="D17">
-        <v>4.895859270991312</v>
+        <v>5.395586330659912</v>
       </c>
       <c r="E17">
-        <v>7.254463461092003</v>
+        <v>8.280635248688153</v>
       </c>
       <c r="F17">
-        <v>24.5074874190566</v>
+        <v>16.71221963002744</v>
       </c>
       <c r="G17">
-        <v>2.09098122212388</v>
+        <v>17.30200265916293</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.831506627013373</v>
       </c>
       <c r="J17">
-        <v>5.944867314901773</v>
+        <v>7.873435161140778</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.68422805880905</v>
       </c>
       <c r="L17">
-        <v>7.090502408541499</v>
+        <v>6.848927359517607</v>
       </c>
       <c r="M17">
-        <v>14.84691750019584</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.44603233293159</v>
       </c>
       <c r="O17">
-        <v>18.12735684326218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.99767344816721</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.18847346995365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.04028334633212</v>
+        <v>25.36398892207152</v>
       </c>
       <c r="C18">
-        <v>13.87750985844014</v>
+        <v>15.71159446235932</v>
       </c>
       <c r="D18">
-        <v>4.879037495513376</v>
+        <v>5.535418201504652</v>
       </c>
       <c r="E18">
-        <v>7.275621847632367</v>
+        <v>8.155773939510368</v>
       </c>
       <c r="F18">
-        <v>24.45529096252968</v>
+        <v>17.37094780643138</v>
       </c>
       <c r="G18">
-        <v>2.092475161848596</v>
+        <v>18.24859207971419</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.595295422697201</v>
       </c>
       <c r="J18">
-        <v>5.960539803316871</v>
+        <v>8.043168666525236</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.945084809349</v>
       </c>
       <c r="L18">
-        <v>7.057746017129269</v>
+        <v>6.672800015892816</v>
       </c>
       <c r="M18">
-        <v>14.70306940195978</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.721132925104118</v>
       </c>
       <c r="O18">
-        <v>18.11324127021822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.11422194333323</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.59589464665881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.93095614611084</v>
+        <v>25.18078246126135</v>
       </c>
       <c r="C19">
-        <v>13.83461949817226</v>
+        <v>15.2279771607336</v>
       </c>
       <c r="D19">
-        <v>4.873353955983807</v>
+        <v>5.732962520005564</v>
       </c>
       <c r="E19">
-        <v>7.282817577880536</v>
+        <v>8.104849249383166</v>
       </c>
       <c r="F19">
-        <v>24.43814094118183</v>
+        <v>18.20921673114293</v>
       </c>
       <c r="G19">
-        <v>2.092982470942202</v>
+        <v>19.46731241000451</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.139716782251214</v>
       </c>
       <c r="J19">
-        <v>5.96586067877432</v>
+        <v>8.239830951213541</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.23601742428752</v>
       </c>
       <c r="L19">
-        <v>7.046659997139114</v>
+        <v>6.507199562172677</v>
       </c>
       <c r="M19">
-        <v>14.65412158887136</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.120398449933372</v>
       </c>
       <c r="O19">
-        <v>18.10887811878748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.39338662091488</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.09403711802305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.41962637868287</v>
+        <v>25.54566346808164</v>
       </c>
       <c r="C20">
-        <v>14.02670322743598</v>
+        <v>14.81456071576462</v>
       </c>
       <c r="D20">
-        <v>4.898978261485949</v>
+        <v>6.080714438435952</v>
       </c>
       <c r="E20">
-        <v>7.250562620991682</v>
+        <v>8.243032909549418</v>
       </c>
       <c r="F20">
-        <v>24.51739763742035</v>
+        <v>19.51604335287031</v>
       </c>
       <c r="G20">
-        <v>2.090705426275233</v>
+        <v>21.39061927164858</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.642734149010544</v>
       </c>
       <c r="J20">
-        <v>5.941973482783368</v>
+        <v>8.506363332595031</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.59490257328434</v>
       </c>
       <c r="L20">
-        <v>7.096566969225108</v>
+        <v>6.372071634269146</v>
       </c>
       <c r="M20">
-        <v>14.87342443854078</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.832771422662351</v>
       </c>
       <c r="O20">
-        <v>18.13016861109404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.10441932498963</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.82993594281328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.00389932987846</v>
+        <v>27.06577536256714</v>
       </c>
       <c r="C21">
-        <v>14.65565424014878</v>
+        <v>15.43159921720192</v>
       </c>
       <c r="D21">
-        <v>4.985876973720212</v>
+        <v>6.235448286144835</v>
       </c>
       <c r="E21">
-        <v>7.14438684441007</v>
+        <v>8.281166316547113</v>
       </c>
       <c r="F21">
-        <v>24.82094777539617</v>
+        <v>19.80421509613302</v>
       </c>
       <c r="G21">
-        <v>2.083153734442927</v>
+        <v>21.92412435990697</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.749555629346489</v>
       </c>
       <c r="J21">
-        <v>5.862679843841887</v>
+        <v>8.468714159446074</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.31104784298485</v>
       </c>
       <c r="L21">
-        <v>7.264482951754876</v>
+        <v>6.387712328677063</v>
       </c>
       <c r="M21">
-        <v>15.59302489682695</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.122178221631197</v>
       </c>
       <c r="O21">
-        <v>18.23163074052119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.9126017243039</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.89667574858291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.99689620379656</v>
+        <v>28.02008660135144</v>
       </c>
       <c r="C22">
-        <v>15.05427565680957</v>
+        <v>15.84909615696229</v>
       </c>
       <c r="D22">
-        <v>5.043234263379374</v>
+        <v>6.320847250684462</v>
       </c>
       <c r="E22">
-        <v>7.076608202392879</v>
+        <v>8.293802818274992</v>
       </c>
       <c r="F22">
-        <v>25.04811764504803</v>
+        <v>19.94631209310592</v>
       </c>
       <c r="G22">
-        <v>2.078286353390092</v>
+        <v>22.20850967314127</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.908592057563901</v>
       </c>
       <c r="J22">
-        <v>5.811525938878765</v>
+        <v>8.435380669906733</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.10965726687401</v>
       </c>
       <c r="L22">
-        <v>7.374296788793032</v>
+        <v>6.401580114498088</v>
       </c>
       <c r="M22">
-        <v>16.05018464808546</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.276102860422025</v>
       </c>
       <c r="O22">
-        <v>18.32139161347991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.39950486195126</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.91691711820072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.47076301773836</v>
+        <v>27.51477159553009</v>
       </c>
       <c r="C23">
-        <v>14.84267214662671</v>
+        <v>15.62763189665866</v>
       </c>
       <c r="D23">
-        <v>5.012572175972779</v>
+        <v>6.275326877728833</v>
       </c>
       <c r="E23">
-        <v>7.112636834309362</v>
+        <v>8.287043079835572</v>
       </c>
       <c r="F23">
-        <v>24.92417595535538</v>
+        <v>19.86905560370092</v>
       </c>
       <c r="G23">
-        <v>2.080878309432244</v>
+        <v>22.05454534153702</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.823986184107325</v>
       </c>
       <c r="J23">
-        <v>5.838769802718824</v>
+        <v>8.452656458477158</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.21633943297317</v>
       </c>
       <c r="L23">
-        <v>7.315686948880039</v>
+        <v>6.394205742608275</v>
       </c>
       <c r="M23">
-        <v>15.8074088868346</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.194281472568198</v>
       </c>
       <c r="O23">
-        <v>18.27126612705459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.14137930546657</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.90489368494878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.393008872811</v>
+        <v>25.51236060980844</v>
       </c>
       <c r="C24">
-        <v>14.01621612025936</v>
+        <v>14.759234419306</v>
       </c>
       <c r="D24">
-        <v>4.897567975168742</v>
+        <v>6.101732702147627</v>
       </c>
       <c r="E24">
-        <v>7.2523255855727</v>
+        <v>8.261743916650751</v>
       </c>
       <c r="F24">
-        <v>24.51290772585503</v>
+        <v>19.60718425041718</v>
       </c>
       <c r="G24">
-        <v>2.090830085009217</v>
+        <v>21.51903841500705</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.62529237593691</v>
       </c>
       <c r="J24">
-        <v>5.943281504768805</v>
+        <v>8.529112202064558</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.63753488643627</v>
       </c>
       <c r="L24">
-        <v>7.093825152191224</v>
+        <v>6.365669011467104</v>
       </c>
       <c r="M24">
-        <v>14.86144530026013</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.877272621001914</v>
       </c>
       <c r="O24">
-        <v>18.12888978009142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.12565103069896</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.88553048186754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9664569599096</v>
+        <v>23.16114909146153</v>
       </c>
       <c r="C25">
-        <v>13.07277625367383</v>
+        <v>13.76132747946242</v>
       </c>
       <c r="D25">
-        <v>4.776176600352835</v>
+        <v>5.912575669420382</v>
       </c>
       <c r="E25">
-        <v>7.41008332581534</v>
+        <v>8.23488213951536</v>
       </c>
       <c r="F25">
-        <v>24.18614820879587</v>
+        <v>19.38763681947578</v>
       </c>
       <c r="G25">
-        <v>2.101892399565608</v>
+        <v>21.04040894435461</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.000508948573924</v>
       </c>
       <c r="J25">
-        <v>6.059200360397364</v>
+        <v>8.633388852916536</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.12565045156551</v>
       </c>
       <c r="L25">
-        <v>6.855515575467691</v>
+        <v>6.333520889337904</v>
       </c>
       <c r="M25">
-        <v>13.78683043266957</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.521163048622352</v>
       </c>
       <c r="O25">
-        <v>18.06854126578267</v>
+        <v>13.95014602049401</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.91650071770982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.26323884710913</v>
+        <v>21.30134206465992</v>
       </c>
       <c r="C2">
-        <v>12.97661502695465</v>
+        <v>12.98777895707345</v>
       </c>
       <c r="D2">
-        <v>5.772323903938467</v>
+        <v>5.785050624194612</v>
       </c>
       <c r="E2">
-        <v>8.215263992611401</v>
+        <v>8.156213865045359</v>
       </c>
       <c r="F2">
-        <v>19.27695613966287</v>
+        <v>18.9489265154937</v>
       </c>
       <c r="G2">
-        <v>20.76925030318023</v>
+        <v>19.6051569240686</v>
       </c>
       <c r="H2">
-        <v>2.289777755249738</v>
+        <v>2.216760127779096</v>
       </c>
       <c r="J2">
-        <v>8.727285672764957</v>
+        <v>9.048783147731855</v>
       </c>
       <c r="K2">
-        <v>13.51183152004178</v>
+        <v>13.15303123179435</v>
       </c>
       <c r="L2">
-        <v>6.308607726068287</v>
+        <v>11.18190208189916</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.231858387744055</v>
       </c>
       <c r="N2">
-        <v>7.247963562440579</v>
+        <v>6.271123563330878</v>
       </c>
       <c r="O2">
-        <v>13.01804725013528</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.379699459469427</v>
       </c>
       <c r="Q2">
-        <v>13.97977223460967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.05210594172669</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.72632260432885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87198518192132</v>
+        <v>19.92091311088271</v>
       </c>
       <c r="C3">
-        <v>12.41549764633209</v>
+        <v>12.32848596250325</v>
       </c>
       <c r="D3">
-        <v>5.677028561663945</v>
+        <v>5.693761318593229</v>
       </c>
       <c r="E3">
-        <v>8.201972197840313</v>
+        <v>8.149847819343103</v>
       </c>
       <c r="F3">
-        <v>19.23196372040703</v>
+        <v>18.9229833905458</v>
       </c>
       <c r="G3">
-        <v>20.63358029620947</v>
+        <v>19.53255596188757</v>
       </c>
       <c r="H3">
-        <v>2.4942867333944</v>
+        <v>2.406319623807854</v>
       </c>
       <c r="J3">
-        <v>8.800835979237839</v>
+        <v>9.087944074622808</v>
       </c>
       <c r="K3">
-        <v>13.78935355193193</v>
+        <v>13.4220930675242</v>
       </c>
       <c r="L3">
-        <v>6.290918484984647</v>
+        <v>11.39736288615323</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.459658718457955</v>
       </c>
       <c r="N3">
-        <v>7.056666220924401</v>
+        <v>6.251656184732735</v>
       </c>
       <c r="O3">
-        <v>12.34644112120255</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.190374926914767</v>
       </c>
       <c r="Q3">
-        <v>14.04581701634499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.36975994751972</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.80092788933085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96564709481157</v>
+        <v>19.02171217137715</v>
       </c>
       <c r="C4">
-        <v>12.0573109796874</v>
+        <v>11.90654968660739</v>
       </c>
       <c r="D4">
-        <v>5.618524195010979</v>
+        <v>5.637968303038809</v>
       </c>
       <c r="E4">
-        <v>8.193782871792759</v>
+        <v>8.146012178432654</v>
       </c>
       <c r="F4">
-        <v>19.21850104340266</v>
+        <v>18.9191885419239</v>
       </c>
       <c r="G4">
-        <v>20.57296042349419</v>
+        <v>19.51145071986647</v>
       </c>
       <c r="H4">
-        <v>2.624146039123086</v>
+        <v>2.526720135392317</v>
       </c>
       <c r="J4">
-        <v>8.850650136304129</v>
+        <v>9.114592156545633</v>
       </c>
       <c r="K4">
-        <v>13.96730251630973</v>
+        <v>13.59350641852718</v>
       </c>
       <c r="L4">
-        <v>6.279650937289606</v>
+        <v>11.53679995348334</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.618259817400267</v>
       </c>
       <c r="N4">
-        <v>6.936450239540062</v>
+        <v>6.239378084655267</v>
       </c>
       <c r="O4">
-        <v>11.91513419285863</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.071880286244428</v>
       </c>
       <c r="Q4">
-        <v>14.09711086803032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.93119414963322</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.85578784291078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.58316778959114</v>
+        <v>18.64228066383972</v>
       </c>
       <c r="C5">
-        <v>11.90805560304252</v>
+        <v>11.73048400649608</v>
       </c>
       <c r="D5">
-        <v>5.594705124932265</v>
+        <v>5.615317692186816</v>
       </c>
       <c r="E5">
-        <v>8.190434368097383</v>
+        <v>8.144463829489194</v>
       </c>
       <c r="F5">
-        <v>19.21647621131501</v>
+        <v>18.92060021355413</v>
       </c>
       <c r="G5">
-        <v>20.55378874406745</v>
+        <v>19.50851748992816</v>
       </c>
       <c r="H5">
-        <v>2.678159173335958</v>
+        <v>2.576806242714696</v>
       </c>
       <c r="J5">
-        <v>8.872086451334427</v>
+        <v>9.126092011746517</v>
       </c>
       <c r="K5">
-        <v>14.04168413360318</v>
+        <v>13.66490651891499</v>
       </c>
       <c r="L5">
-        <v>6.274955943330478</v>
+        <v>11.59542850072752</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.687391315166332</v>
       </c>
       <c r="N5">
-        <v>6.886812832672449</v>
+        <v>6.234292074567451</v>
       </c>
       <c r="O5">
-        <v>11.73475187460668</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.023078363706649</v>
       </c>
       <c r="Q5">
-        <v>14.12061427419805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.74768829293006</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.88033393109217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.51886283044253</v>
+        <v>18.57849072910698</v>
       </c>
       <c r="C6">
-        <v>11.88307768267635</v>
+        <v>11.7010054303078</v>
       </c>
       <c r="D6">
-        <v>5.590751902902467</v>
+        <v>5.611562335785032</v>
       </c>
       <c r="E6">
-        <v>8.189877549699379</v>
+        <v>8.144207510611229</v>
       </c>
       <c r="F6">
-        <v>19.21634603431479</v>
+        <v>18.92101051048209</v>
       </c>
       <c r="G6">
-        <v>20.55093403504618</v>
+        <v>19.5083655910306</v>
       </c>
       <c r="H6">
-        <v>2.687194561750819</v>
+        <v>2.58518511197793</v>
       </c>
       <c r="J6">
-        <v>8.875713632551427</v>
+        <v>9.128039840626197</v>
       </c>
       <c r="K6">
-        <v>14.05414697883646</v>
+        <v>13.67685558719988</v>
       </c>
       <c r="L6">
-        <v>6.274170065389789</v>
+        <v>11.60527316848546</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.699136477652756</v>
       </c>
       <c r="N6">
-        <v>6.878532803143925</v>
+        <v>6.233442535190335</v>
       </c>
       <c r="O6">
-        <v>11.70452508818655</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.014945327531688</v>
       </c>
       <c r="Q6">
-        <v>14.12467116853732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.71693291096982</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.88453960014286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9605420912067</v>
+        <v>19.01644126799606</v>
       </c>
       <c r="C7">
-        <v>12.05531119110648</v>
+        <v>11.89917247271779</v>
       </c>
       <c r="D7">
-        <v>5.618202847173339</v>
+        <v>5.639946412787867</v>
       </c>
       <c r="E7">
-        <v>8.193737763858016</v>
+        <v>8.145826603952818</v>
       </c>
       <c r="F7">
-        <v>19.2184598564495</v>
+        <v>18.90781219988467</v>
       </c>
       <c r="G7">
-        <v>20.57267971050868</v>
+        <v>19.58593671200204</v>
       </c>
       <c r="H7">
-        <v>2.6248700275054</v>
+        <v>2.527937483061986</v>
       </c>
       <c r="J7">
-        <v>8.850934674983302</v>
+        <v>9.083098094803788</v>
       </c>
       <c r="K7">
-        <v>13.96829813718362</v>
+        <v>13.59034035057827</v>
       </c>
       <c r="L7">
-        <v>6.279588039082162</v>
+        <v>11.53310950645081</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.617531825742859</v>
       </c>
       <c r="N7">
-        <v>6.935783375328218</v>
+        <v>6.239036590354288</v>
       </c>
       <c r="O7">
-        <v>11.91271999839455</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.071013560441504</v>
       </c>
       <c r="Q7">
-        <v>14.09741744442847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.92876638640026</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.84727765999208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79432419449881</v>
+        <v>20.83544533369896</v>
       </c>
       <c r="C8">
-        <v>12.78605574998937</v>
+        <v>12.74837062151542</v>
       </c>
       <c r="D8">
-        <v>5.739476493948991</v>
+        <v>5.761049212107384</v>
       </c>
       <c r="E8">
-        <v>8.210684223335701</v>
+        <v>8.153557623814612</v>
       </c>
       <c r="F8">
-        <v>19.2584444973454</v>
+        <v>18.89994722419274</v>
       </c>
       <c r="G8">
-        <v>20.71766533269147</v>
+        <v>19.82249589103346</v>
       </c>
       <c r="H8">
-        <v>2.359411679583507</v>
+        <v>2.282973001639325</v>
       </c>
       <c r="J8">
-        <v>8.751659154797627</v>
+        <v>8.958461847361889</v>
       </c>
       <c r="K8">
-        <v>13.60593343657403</v>
+        <v>13.23102537081723</v>
       </c>
       <c r="L8">
-        <v>6.302592042685806</v>
+        <v>11.24172980404357</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.298964545080528</v>
       </c>
       <c r="N8">
-        <v>7.182602914202524</v>
+        <v>6.263656575133883</v>
       </c>
       <c r="O8">
-        <v>12.79048419800409</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.314252131444432</v>
       </c>
       <c r="Q8">
-        <v>14.00025410148642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.82100526704626</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.72087127255364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.978914712302</v>
+        <v>23.99509988189327</v>
       </c>
       <c r="C9">
-        <v>14.10544200398077</v>
+        <v>14.28974643496043</v>
       </c>
       <c r="D9">
-        <v>5.976491680437023</v>
+        <v>5.991260131426392</v>
       </c>
       <c r="E9">
-        <v>8.243892363289488</v>
+        <v>8.170052582517283</v>
       </c>
       <c r="F9">
-        <v>19.45345120817413</v>
+        <v>19.02650493435098</v>
       </c>
       <c r="G9">
-        <v>21.18871575878142</v>
+        <v>20.20527574729608</v>
       </c>
       <c r="H9">
-        <v>1.872146956682064</v>
+        <v>1.831801270347911</v>
       </c>
       <c r="J9">
-        <v>8.595498158185908</v>
+        <v>8.847275783729808</v>
       </c>
       <c r="K9">
-        <v>12.95693125613509</v>
+        <v>12.59121349179427</v>
       </c>
       <c r="L9">
-        <v>6.344538810558399</v>
+        <v>10.74305577725866</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.838294838601268</v>
       </c>
       <c r="N9">
-        <v>7.642913880462396</v>
+        <v>6.310393229837756</v>
       </c>
       <c r="O9">
-        <v>14.35663102330587</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.772101992458039</v>
       </c>
       <c r="Q9">
-        <v>13.89950478788438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.41012550836229</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.58090228451527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08035690059218</v>
+        <v>26.07921974570278</v>
       </c>
       <c r="C10">
-        <v>15.05605067471608</v>
+        <v>15.35181160564002</v>
       </c>
       <c r="D10">
-        <v>6.119466068724027</v>
+        <v>6.142494763027046</v>
       </c>
       <c r="E10">
-        <v>8.244454559324561</v>
+        <v>8.1606698581469</v>
       </c>
       <c r="F10">
-        <v>19.55279150126098</v>
+        <v>19.01216150080783</v>
       </c>
       <c r="G10">
-        <v>21.48471116326452</v>
+        <v>20.87809596459951</v>
       </c>
       <c r="H10">
-        <v>1.585187886928615</v>
+        <v>1.597728276086812</v>
       </c>
       <c r="J10">
-        <v>8.47868984554272</v>
+        <v>8.583623544321894</v>
       </c>
       <c r="K10">
-        <v>12.47243531788798</v>
+        <v>12.0904797314732</v>
       </c>
       <c r="L10">
-        <v>6.381493971792882</v>
+        <v>10.36929921629051</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.553625318794221</v>
       </c>
       <c r="N10">
-        <v>7.902800654297764</v>
+        <v>6.351534684753513</v>
       </c>
       <c r="O10">
-        <v>15.36443177639476</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.029122252895618</v>
       </c>
       <c r="Q10">
-        <v>13.81522886286027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.42997059066917</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.41533481314759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.06624526710427</v>
+        <v>27.06054389259015</v>
       </c>
       <c r="C11">
-        <v>15.96202417312463</v>
+        <v>16.18076576883211</v>
       </c>
       <c r="D11">
-        <v>5.930634960932962</v>
+        <v>5.973115624304462</v>
       </c>
       <c r="E11">
-        <v>8.121055056282039</v>
+        <v>8.047575673229648</v>
       </c>
       <c r="F11">
-        <v>18.57175807463531</v>
+        <v>17.96304288415588</v>
       </c>
       <c r="G11">
-        <v>20.15651482720088</v>
+        <v>20.55395185386326</v>
       </c>
       <c r="H11">
-        <v>2.635324242696583</v>
+        <v>2.63542738155898</v>
       </c>
       <c r="J11">
-        <v>8.189610739178985</v>
+        <v>8.038609594418954</v>
       </c>
       <c r="K11">
-        <v>11.86425390601689</v>
+        <v>11.52138558690556</v>
       </c>
       <c r="L11">
-        <v>6.512506763688698</v>
+        <v>10.00060598044913</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.101957298063722</v>
       </c>
       <c r="N11">
-        <v>7.49594691504682</v>
+        <v>6.493767310495427</v>
       </c>
       <c r="O11">
-        <v>15.42717999067882</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.60209309871663</v>
       </c>
       <c r="Q11">
-        <v>13.17207378501105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.48543246154231</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.71856235538199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.4737407017001</v>
+        <v>27.46819781791785</v>
       </c>
       <c r="C12">
-        <v>16.54531868728331</v>
+        <v>16.68671701348743</v>
       </c>
       <c r="D12">
-        <v>5.74230377378298</v>
+        <v>5.790164380886266</v>
       </c>
       <c r="E12">
-        <v>8.133731480599197</v>
+        <v>8.066027882299137</v>
       </c>
       <c r="F12">
-        <v>17.7097095810267</v>
+        <v>17.11265432193268</v>
       </c>
       <c r="G12">
-        <v>18.9438694494817</v>
+        <v>19.84093575262127</v>
       </c>
       <c r="H12">
-        <v>4.05632886046413</v>
+        <v>4.057774024524416</v>
       </c>
       <c r="J12">
-        <v>7.96788118713912</v>
+        <v>7.772024165524489</v>
       </c>
       <c r="K12">
-        <v>11.4814425254636</v>
+        <v>11.19470562632186</v>
       </c>
       <c r="L12">
-        <v>6.673524442962878</v>
+        <v>9.813746158330282</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.799304909527407</v>
       </c>
       <c r="N12">
-        <v>7.110415917903315</v>
+        <v>6.661404532852464</v>
       </c>
       <c r="O12">
-        <v>15.26652332202422</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.200724943334206</v>
       </c>
       <c r="Q12">
-        <v>12.63873144873554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.31636629811863</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.1939042933829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.47472729209071</v>
+        <v>27.47325198485968</v>
       </c>
       <c r="C13">
-        <v>16.92737324882743</v>
+        <v>16.99714564853097</v>
       </c>
       <c r="D13">
-        <v>5.5419271282719</v>
+        <v>5.580588263603486</v>
       </c>
       <c r="E13">
-        <v>8.246448483745697</v>
+        <v>8.184241200593835</v>
       </c>
       <c r="F13">
-        <v>16.88484914771965</v>
+        <v>16.38416876344321</v>
       </c>
       <c r="G13">
-        <v>17.73253880933911</v>
+        <v>18.57712834003202</v>
       </c>
       <c r="H13">
-        <v>5.503849723760582</v>
+        <v>5.504014818966979</v>
       </c>
       <c r="J13">
-        <v>7.785539439023316</v>
+        <v>7.697614018888892</v>
       </c>
       <c r="K13">
-        <v>11.25612028227975</v>
+        <v>11.03593085571331</v>
       </c>
       <c r="L13">
-        <v>6.859971241804239</v>
+        <v>9.731636284242642</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.615423547736471</v>
       </c>
       <c r="N13">
-        <v>6.716455970234661</v>
+        <v>6.850631119548221</v>
       </c>
       <c r="O13">
-        <v>14.92003518743773</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.794246078429484</v>
       </c>
       <c r="Q13">
-        <v>12.15821427616707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.9599524148122</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.78749465735652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.29175634925365</v>
+        <v>27.29488105085346</v>
       </c>
       <c r="C14">
-        <v>17.10837422212849</v>
+        <v>17.12967932091499</v>
       </c>
       <c r="D14">
-        <v>5.396957157980395</v>
+        <v>5.423825734520245</v>
       </c>
       <c r="E14">
-        <v>8.381267762654485</v>
+        <v>8.323460259831959</v>
       </c>
       <c r="F14">
-        <v>16.33020063971871</v>
+        <v>15.92970179103181</v>
       </c>
       <c r="G14">
-        <v>16.88832684421776</v>
+        <v>17.45706469496544</v>
       </c>
       <c r="H14">
-        <v>6.523874620128082</v>
+        <v>6.522653504206041</v>
       </c>
       <c r="J14">
-        <v>7.677766817461886</v>
+        <v>7.714110849060734</v>
       </c>
       <c r="K14">
-        <v>11.17863048136446</v>
+        <v>11.00084671420124</v>
       </c>
       <c r="L14">
-        <v>7.00540555476474</v>
+        <v>9.71403235793705</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.550903962549634</v>
       </c>
       <c r="N14">
-        <v>6.440582692179911</v>
+        <v>6.995619821970858</v>
       </c>
       <c r="O14">
-        <v>14.58862554163007</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.51162012887337</v>
       </c>
       <c r="Q14">
-        <v>11.85054662923697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.62068778549578</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.55613211942714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.1592777203892</v>
+        <v>27.16436157873427</v>
       </c>
       <c r="C15">
-        <v>17.10836403824454</v>
+        <v>17.11878701243473</v>
       </c>
       <c r="D15">
-        <v>5.359040593058055</v>
+        <v>5.380960466611418</v>
       </c>
       <c r="E15">
-        <v>8.418826731916887</v>
+        <v>8.363033635098574</v>
       </c>
       <c r="F15">
-        <v>16.20628722851037</v>
+        <v>15.84355706380924</v>
       </c>
       <c r="G15">
-        <v>16.68834580052996</v>
+        <v>17.09165412126846</v>
       </c>
       <c r="H15">
-        <v>6.760824133829506</v>
+        <v>6.758925698924692</v>
       </c>
       <c r="J15">
-        <v>7.660623336103967</v>
+        <v>7.74831002200935</v>
       </c>
       <c r="K15">
-        <v>11.18976923180706</v>
+        <v>11.0210019789629</v>
       </c>
       <c r="L15">
-        <v>7.038272454473751</v>
+        <v>9.723167573467206</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.560356951004051</v>
       </c>
       <c r="N15">
-        <v>6.370088984185197</v>
+        <v>7.027814389261801</v>
       </c>
       <c r="O15">
-        <v>14.46783274590062</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.440285163000167</v>
       </c>
       <c r="Q15">
-        <v>11.78906254383027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.49757949508393</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.52318693179577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.30586204777955</v>
+        <v>26.31876986258233</v>
       </c>
       <c r="C16">
-        <v>16.65955767104677</v>
+        <v>16.67544221044878</v>
       </c>
       <c r="D16">
-        <v>5.335990644060343</v>
+        <v>5.340930564863281</v>
       </c>
       <c r="E16">
-        <v>8.385412646503628</v>
+        <v>8.338770994283047</v>
       </c>
       <c r="F16">
-        <v>16.32612036543492</v>
+        <v>16.07506834391775</v>
       </c>
       <c r="G16">
-        <v>16.7785408189535</v>
+        <v>16.39121001056563</v>
       </c>
       <c r="H16">
-        <v>6.558892371779672</v>
+        <v>6.552836784520631</v>
       </c>
       <c r="J16">
-        <v>7.749026123484007</v>
+        <v>8.037700569418311</v>
       </c>
       <c r="K16">
-        <v>11.44877039236865</v>
+        <v>11.27645867304833</v>
       </c>
       <c r="L16">
-        <v>6.976823029279745</v>
+        <v>9.8487843607519</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.776277015439923</v>
       </c>
       <c r="N16">
-        <v>6.33056901237357</v>
+        <v>6.963250965255842</v>
       </c>
       <c r="O16">
-        <v>14.10015586772152</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.407384003176536</v>
       </c>
       <c r="Q16">
-        <v>11.92330939164425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.12641320187778</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.74085033112002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.73782847358341</v>
+        <v>25.75408727538671</v>
       </c>
       <c r="C17">
-        <v>16.20796816298439</v>
+        <v>16.24760327787532</v>
       </c>
       <c r="D17">
-        <v>5.395586330659912</v>
+        <v>5.395474553712138</v>
       </c>
       <c r="E17">
-        <v>8.280635248688153</v>
+        <v>8.23663488531723</v>
       </c>
       <c r="F17">
-        <v>16.71221963002744</v>
+        <v>16.4830949320641</v>
       </c>
       <c r="G17">
-        <v>17.30200265916293</v>
+        <v>16.56575317538629</v>
       </c>
       <c r="H17">
-        <v>5.831506627013373</v>
+        <v>5.821943677155556</v>
       </c>
       <c r="J17">
-        <v>7.873435161140778</v>
+        <v>8.244079763314803</v>
       </c>
       <c r="K17">
-        <v>11.68422805880905</v>
+        <v>11.49302517376603</v>
       </c>
       <c r="L17">
-        <v>6.848927359517607</v>
+        <v>9.969949447382382</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.964304176165505</v>
       </c>
       <c r="N17">
-        <v>6.44603233293159</v>
+        <v>6.83379171454196</v>
       </c>
       <c r="O17">
-        <v>13.99767344816721</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.530786298824355</v>
       </c>
       <c r="Q17">
-        <v>12.18847346995365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.02556058517969</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.02185639699248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36398892207152</v>
+        <v>25.38028987612454</v>
       </c>
       <c r="C18">
-        <v>15.71159446235932</v>
+        <v>15.80159226629758</v>
       </c>
       <c r="D18">
-        <v>5.535418201504652</v>
+        <v>5.535275552625706</v>
       </c>
       <c r="E18">
-        <v>8.155773939510368</v>
+        <v>8.108712939284318</v>
       </c>
       <c r="F18">
-        <v>17.37094780643138</v>
+        <v>17.11271490166735</v>
       </c>
       <c r="G18">
-        <v>18.24859207971419</v>
+        <v>17.32338345141578</v>
       </c>
       <c r="H18">
-        <v>4.595295422697201</v>
+        <v>4.581695411938963</v>
       </c>
       <c r="J18">
-        <v>8.043168666525236</v>
+        <v>8.434523553506867</v>
       </c>
       <c r="K18">
-        <v>11.945084809349</v>
+        <v>11.72129453104208</v>
       </c>
       <c r="L18">
-        <v>6.672800015892816</v>
+        <v>10.11627650070542</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.160015972896507</v>
       </c>
       <c r="N18">
-        <v>6.721132925104118</v>
+        <v>6.656103694677931</v>
       </c>
       <c r="O18">
-        <v>14.11422194333323</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.816449342615309</v>
       </c>
       <c r="Q18">
-        <v>12.59589464665881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.14863387514599</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.40746812987297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.18078246126135</v>
+        <v>25.1944825330661</v>
       </c>
       <c r="C19">
-        <v>15.2279771607336</v>
+        <v>15.38761827432027</v>
       </c>
       <c r="D19">
-        <v>5.732962520005564</v>
+        <v>5.735332676979624</v>
       </c>
       <c r="E19">
-        <v>8.104849249383166</v>
+        <v>8.04833719848993</v>
       </c>
       <c r="F19">
-        <v>18.20921673114293</v>
+        <v>17.88990056854675</v>
       </c>
       <c r="G19">
-        <v>19.46731241000451</v>
+        <v>18.42494792177501</v>
       </c>
       <c r="H19">
-        <v>3.139716782251214</v>
+        <v>3.120602455027752</v>
       </c>
       <c r="J19">
-        <v>8.239830951213541</v>
+        <v>8.617220510694441</v>
       </c>
       <c r="K19">
-        <v>12.23601742428752</v>
+        <v>11.96618163187979</v>
       </c>
       <c r="L19">
-        <v>6.507199562172677</v>
+        <v>10.28654708618121</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.368983544343713</v>
       </c>
       <c r="N19">
-        <v>7.120398449933372</v>
+        <v>6.48691327240039</v>
       </c>
       <c r="O19">
-        <v>14.39338662091488</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.228562541513665</v>
       </c>
       <c r="Q19">
-        <v>13.09403711802305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.43772584841511</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.86037922271461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54566346808164</v>
+        <v>25.54957950559919</v>
       </c>
       <c r="C20">
-        <v>14.81456071576462</v>
+        <v>15.09650915723337</v>
       </c>
       <c r="D20">
-        <v>6.080714438435952</v>
+        <v>6.09367854896595</v>
       </c>
       <c r="E20">
-        <v>8.243032909549418</v>
+        <v>8.162206233103557</v>
       </c>
       <c r="F20">
-        <v>19.51604335287031</v>
+        <v>19.04561811722968</v>
       </c>
       <c r="G20">
-        <v>21.39061927164858</v>
+        <v>20.4246279397582</v>
       </c>
       <c r="H20">
-        <v>1.642734149010544</v>
+        <v>1.621262235749025</v>
       </c>
       <c r="J20">
-        <v>8.506363332595031</v>
+        <v>8.756421690502956</v>
       </c>
       <c r="K20">
-        <v>12.59490257328434</v>
+        <v>12.2323370778808</v>
       </c>
       <c r="L20">
-        <v>6.372071634269146</v>
+        <v>10.47258740368691</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.632763358520638</v>
       </c>
       <c r="N20">
-        <v>7.832771422662351</v>
+        <v>6.341695142915841</v>
       </c>
       <c r="O20">
-        <v>15.10441932498963</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.960291682041862</v>
       </c>
       <c r="Q20">
-        <v>13.82993594281328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.16704083936973</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.48370634518153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.06577536256714</v>
+        <v>27.05319293956898</v>
       </c>
       <c r="C21">
-        <v>15.43159921720192</v>
+        <v>15.73300519374955</v>
       </c>
       <c r="D21">
-        <v>6.235448286144835</v>
+        <v>6.297745883982612</v>
       </c>
       <c r="E21">
-        <v>8.281166316547113</v>
+        <v>8.188978456618363</v>
       </c>
       <c r="F21">
-        <v>19.80421509613302</v>
+        <v>19.01941499313574</v>
       </c>
       <c r="G21">
-        <v>21.92412435990697</v>
+        <v>22.61483758204962</v>
       </c>
       <c r="H21">
-        <v>1.749555629346489</v>
+        <v>1.742729285094852</v>
       </c>
       <c r="J21">
-        <v>8.468714159446074</v>
+        <v>8.090072050263249</v>
       </c>
       <c r="K21">
-        <v>12.31104784298485</v>
+        <v>11.84206178780943</v>
       </c>
       <c r="L21">
-        <v>6.387712328677063</v>
+        <v>10.19149531223416</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.43211356724805</v>
       </c>
       <c r="N21">
-        <v>8.122178221631197</v>
+        <v>6.355224692187242</v>
       </c>
       <c r="O21">
-        <v>15.9126017243039</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.247898086596951</v>
       </c>
       <c r="Q21">
-        <v>13.89667574858291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.98487157614291</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.30577645154854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.02008660135144</v>
+        <v>27.99719987710469</v>
       </c>
       <c r="C22">
-        <v>15.84909615696229</v>
+        <v>16.15234606680196</v>
       </c>
       <c r="D22">
-        <v>6.320847250684462</v>
+        <v>6.419249508633686</v>
       </c>
       <c r="E22">
-        <v>8.293802818274992</v>
+        <v>8.19658824703415</v>
       </c>
       <c r="F22">
-        <v>19.94631209310592</v>
+        <v>18.94207929448738</v>
       </c>
       <c r="G22">
-        <v>22.20850967314127</v>
+        <v>24.10425390620098</v>
       </c>
       <c r="H22">
-        <v>1.908592057563901</v>
+        <v>1.884170432565399</v>
       </c>
       <c r="J22">
-        <v>8.435380669906733</v>
+        <v>7.690346327480888</v>
       </c>
       <c r="K22">
-        <v>12.10965726687401</v>
+        <v>11.56603718061282</v>
       </c>
       <c r="L22">
-        <v>6.401580114498088</v>
+        <v>10.00362389351118</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.292570401305136</v>
       </c>
       <c r="N22">
-        <v>8.276102860422025</v>
+        <v>6.368687558722883</v>
       </c>
       <c r="O22">
-        <v>16.39950486195126</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.399803691437903</v>
       </c>
       <c r="Q22">
-        <v>13.91691711820072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.47648317133308</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.15268205723228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51477159553009</v>
+        <v>27.49768534750747</v>
       </c>
       <c r="C23">
-        <v>15.62763189665866</v>
+        <v>15.94023366229366</v>
       </c>
       <c r="D23">
-        <v>6.275326877728833</v>
+        <v>6.348409958934807</v>
       </c>
       <c r="E23">
-        <v>8.287043079835572</v>
+        <v>8.192313130365957</v>
       </c>
       <c r="F23">
-        <v>19.86905560370092</v>
+        <v>19.01144197189492</v>
       </c>
       <c r="G23">
-        <v>22.05454534153702</v>
+        <v>23.11069960886544</v>
       </c>
       <c r="H23">
-        <v>1.823986184107325</v>
+        <v>1.809774464139728</v>
       </c>
       <c r="J23">
-        <v>8.452656458477158</v>
+        <v>7.951770354444937</v>
       </c>
       <c r="K23">
-        <v>12.21633943297317</v>
+        <v>11.72359217822225</v>
       </c>
       <c r="L23">
-        <v>6.394205742608275</v>
+        <v>10.10883210921992</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.376339222078012</v>
       </c>
       <c r="N23">
-        <v>8.194281472568198</v>
+        <v>6.361899008526546</v>
       </c>
       <c r="O23">
-        <v>16.14137930546657</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.319460755467013</v>
       </c>
       <c r="Q23">
-        <v>13.90489368494878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.21602800159919</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.25704424227635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51236060980844</v>
+        <v>25.51609890434516</v>
       </c>
       <c r="C24">
-        <v>14.759234419306</v>
+        <v>15.04752188076059</v>
       </c>
       <c r="D24">
-        <v>6.101732702147627</v>
+        <v>6.114713418583444</v>
       </c>
       <c r="E24">
-        <v>8.261743916650751</v>
+        <v>8.179258099868285</v>
       </c>
       <c r="F24">
-        <v>19.60718425041718</v>
+        <v>19.13171409004214</v>
       </c>
       <c r="G24">
-        <v>21.51903841500705</v>
+        <v>20.52962815421159</v>
       </c>
       <c r="H24">
-        <v>1.62529237593691</v>
+        <v>1.603628143721449</v>
       </c>
       <c r="J24">
-        <v>8.529112202064558</v>
+        <v>8.781409605157263</v>
       </c>
       <c r="K24">
-        <v>12.63753488643627</v>
+        <v>12.26901127247818</v>
       </c>
       <c r="L24">
-        <v>6.365669011467104</v>
+        <v>10.49826128514356</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.663007250892817</v>
       </c>
       <c r="N24">
-        <v>7.877272621001914</v>
+        <v>6.334214652472378</v>
       </c>
       <c r="O24">
-        <v>15.12565103069896</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.006369382808272</v>
       </c>
       <c r="Q24">
-        <v>13.88553048186754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.18921701275166</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.53552008933145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.16114909146153</v>
+        <v>23.18404169353979</v>
       </c>
       <c r="C25">
-        <v>13.76132747946242</v>
+        <v>13.89506454170079</v>
       </c>
       <c r="D25">
-        <v>5.912575669420382</v>
+        <v>5.925816070138316</v>
       </c>
       <c r="E25">
-        <v>8.23488213951536</v>
+        <v>8.165626541749415</v>
       </c>
       <c r="F25">
-        <v>19.38763681947578</v>
+        <v>18.99680835791272</v>
       </c>
       <c r="G25">
-        <v>21.04040894435461</v>
+        <v>19.97482372366947</v>
       </c>
       <c r="H25">
-        <v>2.000508948573924</v>
+        <v>1.949954104487946</v>
       </c>
       <c r="J25">
-        <v>8.633388852916536</v>
+        <v>8.918684488902304</v>
       </c>
       <c r="K25">
-        <v>13.12565045156551</v>
+        <v>12.76458464520027</v>
       </c>
       <c r="L25">
-        <v>6.333520889337904</v>
+        <v>10.8766728757748</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.948713556912803</v>
       </c>
       <c r="N25">
-        <v>7.521163048622352</v>
+        <v>6.298327099739007</v>
       </c>
       <c r="O25">
-        <v>13.95014602049401</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.650914456448563</v>
       </c>
       <c r="Q25">
-        <v>13.91650071770982</v>
+        <v>13.99801572708043</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.62259560094451</v>
       </c>
     </row>
   </sheetData>
